--- a/src/output_test/sheets/membros-ativos-contracheque-01-2018.xlsx
+++ b/src/output_test/sheets/membros-ativos-contracheque-01-2018.xlsx
@@ -380,7 +380,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="49.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="54.06"/>
